--- a/Code/Results/Cases/Case_2_96/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_96/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.21375203298785</v>
+        <v>12.56887376080371</v>
       </c>
       <c r="C2">
-        <v>16.30605893867895</v>
+        <v>9.616962402972069</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>11.20877421710282</v>
+        <v>11.47552508142522</v>
       </c>
       <c r="F2">
-        <v>30.27884324296193</v>
+        <v>16.86991607391245</v>
       </c>
       <c r="G2">
-        <v>25.9025312651165</v>
+        <v>24.31200988536654</v>
       </c>
       <c r="H2">
-        <v>8.474185705330253</v>
+        <v>12.79737398264698</v>
       </c>
       <c r="I2">
-        <v>11.20298904011583</v>
+        <v>17.67094968774608</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>18.49933645363812</v>
+        <v>14.61234749703238</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.82333173848946</v>
+        <v>11.910159495426</v>
       </c>
       <c r="C3">
-        <v>15.25179847216036</v>
+        <v>9.059986686841064</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>10.62716946010725</v>
+        <v>11.39582216632876</v>
       </c>
       <c r="F3">
-        <v>28.16301984326747</v>
+        <v>15.89584955866815</v>
       </c>
       <c r="G3">
-        <v>24.6440126706162</v>
+        <v>24.21090572750521</v>
       </c>
       <c r="H3">
-        <v>8.452709397759469</v>
+        <v>12.86216391753769</v>
       </c>
       <c r="I3">
-        <v>11.42524793702369</v>
+        <v>17.82133926884983</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -501,7 +501,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>17.27144696424454</v>
+        <v>14.30045080280758</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.92256951264635</v>
+        <v>11.48745990589954</v>
       </c>
       <c r="C4">
-        <v>14.57070700941683</v>
+        <v>8.698360605248995</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>10.27009559914595</v>
+        <v>11.35117858511622</v>
       </c>
       <c r="F4">
-        <v>26.79314218379242</v>
+        <v>15.26997757108489</v>
       </c>
       <c r="G4">
-        <v>23.90968548924887</v>
+        <v>24.16648425500686</v>
       </c>
       <c r="H4">
-        <v>8.454517586973129</v>
+        <v>12.90609710775776</v>
       </c>
       <c r="I4">
-        <v>11.58762551632592</v>
+        <v>17.92035240763592</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -548,7 +548,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>16.47888124356018</v>
+        <v>14.10899837751401</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.54360255550346</v>
+        <v>11.31079956168846</v>
       </c>
       <c r="C5">
-        <v>14.28461631607779</v>
+        <v>8.546097223116046</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>10.12474208879044</v>
+        <v>11.33407995066704</v>
       </c>
       <c r="F5">
-        <v>26.21694803853475</v>
+        <v>15.008197319934</v>
       </c>
       <c r="G5">
-        <v>23.62042168396171</v>
+        <v>24.15281382906065</v>
       </c>
       <c r="H5">
-        <v>8.458792813628545</v>
+        <v>12.92503774980555</v>
       </c>
       <c r="I5">
-        <v>11.65972456714881</v>
+        <v>17.96236948673096</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -595,7 +595,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>16.14609994973015</v>
+        <v>14.03110750795511</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.47995492339582</v>
+        <v>11.28120504366204</v>
       </c>
       <c r="C6">
-        <v>14.23659426642671</v>
+        <v>8.520519614600662</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>10.10062069070777</v>
+        <v>11.33130717530942</v>
       </c>
       <c r="F6">
-        <v>26.1201820470107</v>
+        <v>14.96433081551589</v>
       </c>
       <c r="G6">
-        <v>23.5730014837803</v>
+        <v>24.15081105509914</v>
       </c>
       <c r="H6">
-        <v>8.459709621174008</v>
+        <v>12.92824530054962</v>
       </c>
       <c r="I6">
-        <v>11.67203849786517</v>
+        <v>17.96944688279601</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -642,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>16.0902474228856</v>
+        <v>14.01818487443223</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.91750689383838</v>
+        <v>11.48509498173897</v>
       </c>
       <c r="C7">
-        <v>14.56688332208169</v>
+        <v>8.69632689654027</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>10.26813445546255</v>
+        <v>11.35094354056625</v>
       </c>
       <c r="F7">
-        <v>26.78544435617556</v>
+        <v>15.26647399323133</v>
       </c>
       <c r="G7">
-        <v>23.90574355221758</v>
+        <v>24.16628196696071</v>
       </c>
       <c r="H7">
-        <v>8.454561224748925</v>
+        <v>12.90634835575482</v>
       </c>
       <c r="I7">
-        <v>11.58857460071234</v>
+        <v>17.92091232191434</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>16.47443304221637</v>
+        <v>14.10794724499572</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.74405080760595</v>
+        <v>12.34563501984533</v>
       </c>
       <c r="C8">
-        <v>15.94952495011127</v>
+        <v>9.429014812300268</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>11.0083086189459</v>
+        <v>11.44716144666769</v>
       </c>
       <c r="F8">
-        <v>29.56389055882486</v>
+        <v>16.5399640634477</v>
       </c>
       <c r="G8">
-        <v>25.4608177683994</v>
+        <v>24.27348315885691</v>
       </c>
       <c r="H8">
-        <v>8.463529353213175</v>
+        <v>12.81884791711931</v>
       </c>
       <c r="I8">
-        <v>11.27387760100271</v>
+        <v>17.72141308964441</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -736,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>18.08392075649537</v>
+        <v>14.50486206528624</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.95661071012702</v>
+        <v>13.8819435843696</v>
       </c>
       <c r="C9">
-        <v>18.39595226119082</v>
+        <v>10.70869662635822</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>12.45536865020383</v>
+        <v>11.66918175842961</v>
       </c>
       <c r="F9">
-        <v>34.4587799414611</v>
+        <v>19.00274580682531</v>
       </c>
       <c r="G9">
-        <v>28.80150883159941</v>
+        <v>24.62357552597775</v>
       </c>
       <c r="H9">
-        <v>8.610313207520088</v>
+        <v>12.68049270423171</v>
       </c>
       <c r="I9">
-        <v>10.89122573896477</v>
+        <v>17.38358854304662</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>20.93839608748361</v>
+        <v>15.27877483991484</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.09821130141511</v>
+        <v>14.91167324054975</v>
       </c>
       <c r="C10">
-        <v>20.03716690728142</v>
+        <v>11.55197424508465</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>13.61495849777773</v>
+        <v>11.85148439154785</v>
       </c>
       <c r="F10">
-        <v>37.72874519847217</v>
+        <v>20.67494806633232</v>
       </c>
       <c r="G10">
-        <v>31.48088520782909</v>
+        <v>24.96490727222377</v>
       </c>
       <c r="H10">
-        <v>8.810483333706452</v>
+        <v>12.59949499457067</v>
       </c>
       <c r="I10">
-        <v>10.79593949188034</v>
+        <v>17.1685639540186</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -830,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>22.85952036035421</v>
+        <v>15.83843880154381</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.02667415603619</v>
+        <v>15.35760911795355</v>
       </c>
       <c r="C11">
-        <v>20.75135218790178</v>
+        <v>11.91445189657436</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>14.18979476683239</v>
+        <v>11.93830104906722</v>
       </c>
       <c r="F11">
-        <v>39.14805722232856</v>
+        <v>21.3917225636224</v>
       </c>
       <c r="G11">
-        <v>32.78190856164439</v>
+        <v>25.13796590495555</v>
       </c>
       <c r="H11">
-        <v>8.924349561759559</v>
+        <v>12.56721402892345</v>
       </c>
       <c r="I11">
-        <v>10.80285235365975</v>
+        <v>17.07808887489958</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>23.69731424319536</v>
+        <v>16.08988543424344</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.3718341056097</v>
+        <v>15.52317536274853</v>
       </c>
       <c r="C12">
-        <v>21.01727602732582</v>
+        <v>12.04866989175218</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>14.40537507163864</v>
+        <v>11.97170890473455</v>
       </c>
       <c r="F12">
-        <v>39.67592721363786</v>
+        <v>21.65686569030329</v>
       </c>
       <c r="G12">
-        <v>33.27785067785186</v>
+        <v>25.20599973536239</v>
       </c>
       <c r="H12">
-        <v>8.970962573138513</v>
+        <v>12.55565323583752</v>
       </c>
       <c r="I12">
-        <v>10.81352744378013</v>
+        <v>17.04489628981304</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>24.00956258049079</v>
+        <v>16.18455512097112</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.29778106324491</v>
+        <v>15.48766537924742</v>
       </c>
       <c r="C13">
-        <v>20.96020332230921</v>
+        <v>12.01989909502442</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>14.35903602944009</v>
+        <v>11.96449068939658</v>
       </c>
       <c r="F13">
-        <v>39.5626640325822</v>
+        <v>21.60004134736742</v>
       </c>
       <c r="G13">
-        <v>33.17089295925118</v>
+        <v>25.19123724511072</v>
       </c>
       <c r="H13">
-        <v>8.960764876462612</v>
+        <v>12.55811345120938</v>
       </c>
       <c r="I13">
-        <v>10.81085695580285</v>
+        <v>17.05199718343609</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>23.9425336887778</v>
+        <v>16.16419211840904</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.05519858725787</v>
+        <v>15.37129681700192</v>
       </c>
       <c r="C14">
-        <v>20.7733196868621</v>
+        <v>11.92555512493025</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>14.20757156457855</v>
+        <v>11.94103902283489</v>
       </c>
       <c r="F14">
-        <v>39.19167637503948</v>
+        <v>21.4136618050453</v>
       </c>
       <c r="G14">
-        <v>32.82264369089354</v>
+        <v>25.1435133417218</v>
       </c>
       <c r="H14">
-        <v>8.928113207635745</v>
+        <v>12.5662495831561</v>
       </c>
       <c r="I14">
-        <v>10.80356441181828</v>
+        <v>17.07533661475297</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1018,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>23.7231022605934</v>
+        <v>16.09768546607004</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.90577738321985</v>
+        <v>15.29958624173079</v>
       </c>
       <c r="C15">
-        <v>20.65826349126743</v>
+        <v>11.86737014588224</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>14.11452801589758</v>
+        <v>11.92674270606538</v>
       </c>
       <c r="F15">
-        <v>38.96319309154516</v>
+        <v>21.29868154950795</v>
       </c>
       <c r="G15">
-        <v>32.60976079287724</v>
+        <v>25.1146048202573</v>
       </c>
       <c r="H15">
-        <v>8.908574425103483</v>
+        <v>12.57131978178306</v>
       </c>
       <c r="I15">
-        <v>10.80017124507139</v>
+        <v>17.08977220883328</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>23.58804826914673</v>
+        <v>16.05687417629974</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.03662582278055</v>
+        <v>14.88207174851346</v>
       </c>
       <c r="C16">
-        <v>19.98985241748596</v>
+        <v>11.5278596660187</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>13.57708731318592</v>
+        <v>11.84588668056121</v>
       </c>
       <c r="F16">
-        <v>37.6346354302881</v>
+        <v>20.62722412089977</v>
       </c>
       <c r="G16">
-        <v>31.39631279707664</v>
+        <v>24.95395070083527</v>
       </c>
       <c r="H16">
-        <v>8.803519380793285</v>
+        <v>12.60169708287471</v>
       </c>
       <c r="I16">
-        <v>10.79657023947741</v>
+        <v>17.17462551036413</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>22.80405718202348</v>
+        <v>15.82193457120888</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.49181163324047</v>
+        <v>14.62012803111095</v>
       </c>
       <c r="C17">
-        <v>19.57159520754191</v>
+        <v>11.3141630855048</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>13.2434415444796</v>
+        <v>11.79726103490838</v>
       </c>
       <c r="F17">
-        <v>36.80228778268389</v>
+        <v>20.20408069617459</v>
       </c>
       <c r="G17">
-        <v>30.65764183688238</v>
+        <v>24.85991225641118</v>
       </c>
       <c r="H17">
-        <v>8.745068332405491</v>
+        <v>12.62150674483756</v>
       </c>
       <c r="I17">
-        <v>10.80782650178455</v>
+        <v>17.22856935959316</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>22.313977397483</v>
+        <v>15.67693103450647</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.17413155192752</v>
+        <v>14.46735071195719</v>
       </c>
       <c r="C18">
-        <v>19.32796468522486</v>
+        <v>11.18926133225462</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>13.05003034262071</v>
+        <v>11.76966033009945</v>
       </c>
       <c r="F18">
-        <v>36.31710943239624</v>
+        <v>19.95656407809808</v>
       </c>
       <c r="G18">
-        <v>30.25330624388221</v>
+        <v>24.80750193116981</v>
       </c>
       <c r="H18">
-        <v>8.713583318849981</v>
+        <v>12.6333300444563</v>
       </c>
       <c r="I18">
-        <v>10.81898148801538</v>
+        <v>17.26028658650515</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>22.02868259885676</v>
+        <v>15.59323790623805</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.06582466226172</v>
+        <v>14.41526203912447</v>
       </c>
       <c r="C19">
-        <v>19.24494609245459</v>
+        <v>11.14663033715737</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>12.99408769443087</v>
+        <v>11.76037910770588</v>
       </c>
       <c r="F19">
-        <v>36.1517249415006</v>
+        <v>19.87204792380562</v>
       </c>
       <c r="G19">
-        <v>30.12024544934706</v>
+        <v>24.79004649142204</v>
       </c>
       <c r="H19">
-        <v>8.703282966130821</v>
+        <v>12.63740673452426</v>
       </c>
       <c r="I19">
-        <v>10.8235368634028</v>
+        <v>17.27114364553805</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>21.93149490850665</v>
+        <v>15.56485388126776</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.55025381746664</v>
+        <v>14.64823171827339</v>
       </c>
       <c r="C20">
-        <v>19.61643515992017</v>
+        <v>11.33711736990056</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>13.27911342497262</v>
+        <v>11.80239947325299</v>
       </c>
       <c r="F20">
-        <v>36.89155697731401</v>
+        <v>20.24955283636157</v>
       </c>
       <c r="G20">
-        <v>30.73605710304623</v>
+        <v>24.86974951577688</v>
       </c>
       <c r="H20">
-        <v>8.751068056264826</v>
+        <v>12.61935349133508</v>
       </c>
       <c r="I20">
-        <v>10.80613777468462</v>
+        <v>17.22275542556486</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>22.36649924205064</v>
+        <v>15.69239772695204</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.12662412471489</v>
+        <v>15.40556710113534</v>
       </c>
       <c r="C21">
-        <v>20.82833349292065</v>
+        <v>11.95334888611119</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>14.25211565955112</v>
+        <v>11.94791311839159</v>
       </c>
       <c r="F21">
-        <v>39.30090300329766</v>
+        <v>21.46857628470577</v>
       </c>
       <c r="G21">
-        <v>32.9248430951824</v>
+        <v>25.15746365578941</v>
       </c>
       <c r="H21">
-        <v>8.937607285401821</v>
+        <v>12.56384174816487</v>
       </c>
       <c r="I21">
-        <v>10.80548118617999</v>
+        <v>17.06845215912991</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>23.7876888248353</v>
+        <v>16.11723567403264</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.11948393801785</v>
+        <v>15.88127326530437</v>
       </c>
       <c r="C22">
-        <v>21.59409516427084</v>
+        <v>12.33834646166475</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>14.87590929991658</v>
+        <v>12.04610397748409</v>
       </c>
       <c r="F22">
-        <v>40.81974568026788</v>
+        <v>22.22866616901552</v>
       </c>
       <c r="G22">
-        <v>34.37453637856824</v>
+        <v>25.36004188755766</v>
       </c>
       <c r="H22">
-        <v>9.079983890030647</v>
+        <v>12.53143096491612</v>
       </c>
       <c r="I22">
-        <v>10.85238690194411</v>
+        <v>16.97383950345283</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>24.68744433486818</v>
+        <v>16.39165966674587</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.5929425769323</v>
+        <v>15.62916016417399</v>
       </c>
       <c r="C23">
-        <v>21.18774830074559</v>
+        <v>12.13449060198183</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>14.54401887738856</v>
+        <v>11.99342410673993</v>
       </c>
       <c r="F23">
-        <v>40.01414225038419</v>
+        <v>21.82633154458858</v>
       </c>
       <c r="G23">
-        <v>33.59900127055459</v>
+        <v>25.25061297146399</v>
       </c>
       <c r="H23">
-        <v>9.002053420235914</v>
+        <v>12.54837293960811</v>
       </c>
       <c r="I23">
-        <v>10.82275165634711</v>
+        <v>17.02376137356202</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>24.20981933520977</v>
+        <v>16.24551999702043</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.52384600648914</v>
+        <v>14.63553283386399</v>
       </c>
       <c r="C24">
-        <v>19.59617289801695</v>
+        <v>11.32674610647375</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>13.26299114575712</v>
+        <v>11.80007527805839</v>
       </c>
       <c r="F24">
-        <v>36.8512191057543</v>
+        <v>20.22900810905287</v>
       </c>
       <c r="G24">
-        <v>30.70059961177914</v>
+        <v>24.86529693576183</v>
       </c>
       <c r="H24">
-        <v>8.748348996385818</v>
+        <v>12.62032562443806</v>
       </c>
       <c r="I24">
-        <v>10.80688672305448</v>
+        <v>17.2253817125925</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1488,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>22.34276516088515</v>
+        <v>15.68540625172178</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.12644676243093</v>
+        <v>13.4833102169623</v>
       </c>
       <c r="C25">
-        <v>17.7619977841128</v>
+        <v>10.37947153275012</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>12.06487625784401</v>
+        <v>11.60565993429262</v>
       </c>
       <c r="F25">
-        <v>33.19272459126715</v>
+        <v>18.34778573295695</v>
       </c>
       <c r="G25">
-        <v>27.86832179360567</v>
+        <v>24.51396487365728</v>
       </c>
       <c r="H25">
-        <v>8.555348013835216</v>
+        <v>12.71432288758886</v>
       </c>
       <c r="I25">
-        <v>10.96537472149739</v>
+        <v>17.46919973658539</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>20.19773536755593</v>
+        <v>15.07054676107623</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_96/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_96/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.56887376080371</v>
+        <v>21.21375203298786</v>
       </c>
       <c r="C2">
-        <v>9.616962402972069</v>
+        <v>16.30605893867895</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>11.47552508142522</v>
+        <v>11.20877421710281</v>
       </c>
       <c r="F2">
-        <v>16.86991607391245</v>
+        <v>30.27884324296195</v>
       </c>
       <c r="G2">
-        <v>24.31200988536654</v>
+        <v>25.90253126511665</v>
       </c>
       <c r="H2">
-        <v>12.79737398264698</v>
+        <v>8.474185705330292</v>
       </c>
       <c r="I2">
-        <v>17.67094968774608</v>
+        <v>11.2029890401159</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>14.61234749703238</v>
+        <v>18.49933645363814</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.910159495426</v>
+        <v>19.82333173848947</v>
       </c>
       <c r="C3">
-        <v>9.059986686841064</v>
+        <v>15.25179847216039</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>11.39582216632876</v>
+        <v>10.62716946010723</v>
       </c>
       <c r="F3">
-        <v>15.89584955866815</v>
+        <v>28.1630198432675</v>
       </c>
       <c r="G3">
-        <v>24.21090572750521</v>
+        <v>24.64401267061632</v>
       </c>
       <c r="H3">
-        <v>12.86216391753769</v>
+        <v>8.452709397759582</v>
       </c>
       <c r="I3">
-        <v>17.82133926884983</v>
+        <v>11.42524793702387</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -501,7 +501,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>14.30045080280758</v>
+        <v>17.27144696424454</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.48745990589954</v>
+        <v>18.92256951264643</v>
       </c>
       <c r="C4">
-        <v>8.698360605248995</v>
+        <v>14.57070700941681</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>11.35117858511622</v>
+        <v>10.27009559914599</v>
       </c>
       <c r="F4">
-        <v>15.26997757108489</v>
+        <v>26.79314218379246</v>
       </c>
       <c r="G4">
-        <v>24.16648425500686</v>
+        <v>23.90968548924889</v>
       </c>
       <c r="H4">
-        <v>12.90609710775776</v>
+        <v>8.454517586973003</v>
       </c>
       <c r="I4">
-        <v>17.92035240763592</v>
+        <v>11.5876255163258</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -548,7 +548,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>14.10899837751401</v>
+        <v>16.47888124356017</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.31079956168846</v>
+        <v>18.54360255550346</v>
       </c>
       <c r="C5">
-        <v>8.546097223116046</v>
+        <v>14.28461631607786</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>11.33407995066704</v>
+        <v>10.12474208879044</v>
       </c>
       <c r="F5">
-        <v>15.008197319934</v>
+        <v>26.2169480385347</v>
       </c>
       <c r="G5">
-        <v>24.15281382906065</v>
+        <v>23.62042168396168</v>
       </c>
       <c r="H5">
-        <v>12.92503774980555</v>
+        <v>8.458792813628545</v>
       </c>
       <c r="I5">
-        <v>17.96236948673096</v>
+        <v>11.65972456714881</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -595,7 +595,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>14.03110750795511</v>
+        <v>16.14609994973015</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.28120504366204</v>
+        <v>18.47995492339581</v>
       </c>
       <c r="C6">
-        <v>8.520519614600662</v>
+        <v>14.23659426642639</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>11.33130717530942</v>
+        <v>10.10062069070778</v>
       </c>
       <c r="F6">
-        <v>14.96433081551589</v>
+        <v>26.12018204701072</v>
       </c>
       <c r="G6">
-        <v>24.15081105509914</v>
+        <v>23.57300148378049</v>
       </c>
       <c r="H6">
-        <v>12.92824530054962</v>
+        <v>8.459709621174069</v>
       </c>
       <c r="I6">
-        <v>17.96944688279601</v>
+        <v>11.67203849786525</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -642,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>14.01818487443223</v>
+        <v>16.09024742288554</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.48509498173897</v>
+        <v>18.91750689383839</v>
       </c>
       <c r="C7">
-        <v>8.69632689654027</v>
+        <v>14.56688332208164</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>11.35094354056625</v>
+        <v>10.26813445546258</v>
       </c>
       <c r="F7">
-        <v>15.26647399323133</v>
+        <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>24.16628196696071</v>
+        <v>23.90574355221777</v>
       </c>
       <c r="H7">
-        <v>12.90634835575482</v>
+        <v>8.454561224748876</v>
       </c>
       <c r="I7">
-        <v>17.92091232191434</v>
+        <v>11.5885746007124</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>14.10794724499572</v>
+        <v>16.47443304221635</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.34563501984533</v>
+        <v>20.74405080760593</v>
       </c>
       <c r="C8">
-        <v>9.429014812300268</v>
+        <v>15.94952495011111</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>11.44716144666769</v>
+        <v>11.00830861894595</v>
       </c>
       <c r="F8">
-        <v>16.5399640634477</v>
+        <v>29.56389055882491</v>
       </c>
       <c r="G8">
-        <v>24.27348315885691</v>
+        <v>25.46081776839961</v>
       </c>
       <c r="H8">
-        <v>12.81884791711931</v>
+        <v>8.463529353213303</v>
       </c>
       <c r="I8">
-        <v>17.72141308964441</v>
+        <v>11.27387760100288</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -736,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>14.50486206528624</v>
+        <v>18.08392075649532</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.8819435843696</v>
+        <v>23.95661071012695</v>
       </c>
       <c r="C9">
-        <v>10.70869662635822</v>
+        <v>18.3959522611907</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>11.66918175842961</v>
+        <v>12.45536865020382</v>
       </c>
       <c r="F9">
-        <v>19.00274580682531</v>
+        <v>34.45877994146107</v>
       </c>
       <c r="G9">
-        <v>24.62357552597775</v>
+        <v>28.80150883159925</v>
       </c>
       <c r="H9">
-        <v>12.68049270423171</v>
+        <v>8.610313207520132</v>
       </c>
       <c r="I9">
-        <v>17.38358854304662</v>
+        <v>10.89122573896481</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>15.27877483991484</v>
+        <v>20.9383960874836</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.91167324054975</v>
+        <v>26.09821130141509</v>
       </c>
       <c r="C10">
-        <v>11.55197424508465</v>
+        <v>20.03716690728142</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>11.85148439154785</v>
+        <v>13.6149584977777</v>
       </c>
       <c r="F10">
-        <v>20.67494806633232</v>
+        <v>37.72874519847221</v>
       </c>
       <c r="G10">
-        <v>24.96490727222377</v>
+        <v>31.48088520782902</v>
       </c>
       <c r="H10">
-        <v>12.59949499457067</v>
+        <v>8.810483333706486</v>
       </c>
       <c r="I10">
-        <v>17.1685639540186</v>
+        <v>10.79593949188037</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -830,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>15.83843880154381</v>
+        <v>22.85952036035417</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.35760911795355</v>
+        <v>27.02667415603621</v>
       </c>
       <c r="C11">
-        <v>11.91445189657436</v>
+        <v>20.75135218790172</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>11.93830104906722</v>
+        <v>14.18979476683239</v>
       </c>
       <c r="F11">
-        <v>21.3917225636224</v>
+        <v>39.1480572223286</v>
       </c>
       <c r="G11">
-        <v>25.13796590495555</v>
+        <v>32.78190856164449</v>
       </c>
       <c r="H11">
-        <v>12.56721402892345</v>
+        <v>8.924349561759575</v>
       </c>
       <c r="I11">
-        <v>17.07808887489958</v>
+        <v>10.80285235365976</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>16.08988543424344</v>
+        <v>23.69731424319538</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.52317536274853</v>
+        <v>27.37183410560967</v>
       </c>
       <c r="C12">
-        <v>12.04866989175218</v>
+        <v>21.01727602732571</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>11.97170890473455</v>
+        <v>14.40537507163865</v>
       </c>
       <c r="F12">
-        <v>21.65686569030329</v>
+        <v>39.67592721363786</v>
       </c>
       <c r="G12">
-        <v>25.20599973536239</v>
+        <v>33.27785067785208</v>
       </c>
       <c r="H12">
-        <v>12.55565323583752</v>
+        <v>8.970962573138609</v>
       </c>
       <c r="I12">
-        <v>17.04489628981304</v>
+        <v>10.81352744378032</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>16.18455512097112</v>
+        <v>24.00956258049074</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.48766537924742</v>
+        <v>27.29778106324486</v>
       </c>
       <c r="C13">
-        <v>12.01989909502442</v>
+        <v>20.96020332230924</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>11.96449068939658</v>
+        <v>14.35903602944013</v>
       </c>
       <c r="F13">
-        <v>21.60004134736742</v>
+        <v>39.56266403258223</v>
       </c>
       <c r="G13">
-        <v>25.19123724511072</v>
+        <v>33.17089295925143</v>
       </c>
       <c r="H13">
-        <v>12.55811345120938</v>
+        <v>8.960764876462658</v>
       </c>
       <c r="I13">
-        <v>17.05199718343609</v>
+        <v>10.8108569558029</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>16.16419211840904</v>
+        <v>23.9425336887778</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.37129681700192</v>
+        <v>27.05519858725786</v>
       </c>
       <c r="C14">
-        <v>11.92555512493025</v>
+        <v>20.77331968686213</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>11.94103902283489</v>
+        <v>14.2075715645786</v>
       </c>
       <c r="F14">
-        <v>21.4136618050453</v>
+        <v>39.19167637503946</v>
       </c>
       <c r="G14">
-        <v>25.1435133417218</v>
+        <v>32.82264369089364</v>
       </c>
       <c r="H14">
-        <v>12.5662495831561</v>
+        <v>8.928113207635775</v>
       </c>
       <c r="I14">
-        <v>17.07533661475297</v>
+        <v>10.80356441181831</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1018,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>16.09768546607004</v>
+        <v>23.72310226059342</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.29958624173079</v>
+        <v>26.90577738321987</v>
       </c>
       <c r="C15">
-        <v>11.86737014588224</v>
+        <v>20.65826349126743</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>11.92674270606538</v>
+        <v>14.11452801589759</v>
       </c>
       <c r="F15">
-        <v>21.29868154950795</v>
+        <v>38.96319309154519</v>
       </c>
       <c r="G15">
-        <v>25.1146048202573</v>
+        <v>32.60976079287749</v>
       </c>
       <c r="H15">
-        <v>12.57131978178306</v>
+        <v>8.908574425103536</v>
       </c>
       <c r="I15">
-        <v>17.08977220883328</v>
+        <v>10.80017124507144</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>16.05687417629974</v>
+        <v>23.58804826914677</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.88207174851346</v>
+        <v>26.03662582278052</v>
       </c>
       <c r="C16">
-        <v>11.5278596660187</v>
+        <v>19.98985241748588</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>11.84588668056121</v>
+        <v>13.57708731318594</v>
       </c>
       <c r="F16">
-        <v>20.62722412089977</v>
+        <v>37.63463543028804</v>
       </c>
       <c r="G16">
-        <v>24.95395070083527</v>
+        <v>31.3963127970767</v>
       </c>
       <c r="H16">
-        <v>12.60169708287471</v>
+        <v>8.803519380793375</v>
       </c>
       <c r="I16">
-        <v>17.17462551036413</v>
+        <v>10.79657023947755</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>15.82193457120888</v>
+        <v>22.80405718202347</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.62012803111095</v>
+        <v>25.49181163324045</v>
       </c>
       <c r="C17">
-        <v>11.3141630855048</v>
+        <v>19.57159520754194</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>11.79726103490838</v>
+        <v>13.24344154447955</v>
       </c>
       <c r="F17">
-        <v>20.20408069617459</v>
+        <v>36.80228778268388</v>
       </c>
       <c r="G17">
-        <v>24.85991225641118</v>
+        <v>30.65764183688224</v>
       </c>
       <c r="H17">
-        <v>12.62150674483756</v>
+        <v>8.7450683324055</v>
       </c>
       <c r="I17">
-        <v>17.22856935959316</v>
+        <v>10.80782650178461</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>15.67693103450647</v>
+        <v>22.31397739748303</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.46735071195719</v>
+        <v>25.17413155192751</v>
       </c>
       <c r="C18">
-        <v>11.18926133225462</v>
+        <v>19.32796468522485</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>11.76966033009945</v>
+        <v>13.05003034262072</v>
       </c>
       <c r="F18">
-        <v>19.95656407809808</v>
+        <v>36.31710943239623</v>
       </c>
       <c r="G18">
-        <v>24.80750193116981</v>
+        <v>30.25330624388219</v>
       </c>
       <c r="H18">
-        <v>12.6333300444563</v>
+        <v>8.713583318850006</v>
       </c>
       <c r="I18">
-        <v>17.26028658650515</v>
+        <v>10.8189814880154</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>15.59323790623805</v>
+        <v>22.02868259885678</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.41526203912447</v>
+        <v>25.06582466226174</v>
       </c>
       <c r="C19">
-        <v>11.14663033715737</v>
+        <v>19.2449460924544</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>11.76037910770588</v>
+        <v>12.99408769443087</v>
       </c>
       <c r="F19">
-        <v>19.87204792380562</v>
+        <v>36.15172494150058</v>
       </c>
       <c r="G19">
-        <v>24.79004649142204</v>
+        <v>30.12024544934721</v>
       </c>
       <c r="H19">
-        <v>12.63740673452426</v>
+        <v>8.703282966130855</v>
       </c>
       <c r="I19">
-        <v>17.27114364553805</v>
+        <v>10.8235368634028</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>15.56485388126776</v>
+        <v>21.93149490850665</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.64823171827339</v>
+        <v>25.55025381746665</v>
       </c>
       <c r="C20">
-        <v>11.33711736990056</v>
+        <v>19.61643515992037</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>11.80239947325299</v>
+        <v>13.27911342497266</v>
       </c>
       <c r="F20">
-        <v>20.24955283636157</v>
+        <v>36.89155697731402</v>
       </c>
       <c r="G20">
-        <v>24.86974951577688</v>
+        <v>30.7360571030463</v>
       </c>
       <c r="H20">
-        <v>12.61935349133508</v>
+        <v>8.751068056264799</v>
       </c>
       <c r="I20">
-        <v>17.22275542556486</v>
+        <v>10.80613777468461</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>15.69239772695204</v>
+        <v>22.36649924205071</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.40556710113534</v>
+        <v>27.12662412471487</v>
       </c>
       <c r="C21">
-        <v>11.95334888611119</v>
+        <v>20.82833349292072</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>11.94791311839159</v>
+        <v>14.2521156595511</v>
       </c>
       <c r="F21">
-        <v>21.46857628470577</v>
+        <v>39.30090300329761</v>
       </c>
       <c r="G21">
-        <v>25.15746365578941</v>
+        <v>32.92484309518245</v>
       </c>
       <c r="H21">
-        <v>12.56384174816487</v>
+        <v>8.937607285401773</v>
       </c>
       <c r="I21">
-        <v>17.06845215912991</v>
+        <v>10.80548118618</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>16.11723567403264</v>
+        <v>23.7876888248353</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>15.88127326530437</v>
+        <v>28.11948393801777</v>
       </c>
       <c r="C22">
-        <v>12.33834646166475</v>
+        <v>21.59409516427075</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>12.04610397748409</v>
+        <v>14.87590929991658</v>
       </c>
       <c r="F22">
-        <v>22.22866616901552</v>
+        <v>40.81974568026784</v>
       </c>
       <c r="G22">
-        <v>25.36004188755766</v>
+        <v>34.37453637856829</v>
       </c>
       <c r="H22">
-        <v>12.53143096491612</v>
+        <v>9.079983890030684</v>
       </c>
       <c r="I22">
-        <v>16.97383950345283</v>
+        <v>10.85238690194425</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>16.39165966674587</v>
+        <v>24.68744433486815</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.62916016417399</v>
+        <v>27.59294257693231</v>
       </c>
       <c r="C23">
-        <v>12.13449060198183</v>
+        <v>21.18774830074571</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>11.99342410673993</v>
+        <v>14.54401887738855</v>
       </c>
       <c r="F23">
-        <v>21.82633154458858</v>
+        <v>40.01414225038427</v>
       </c>
       <c r="G23">
-        <v>25.25061297146399</v>
+        <v>33.59900127055491</v>
       </c>
       <c r="H23">
-        <v>12.54837293960811</v>
+        <v>9.002053420235905</v>
       </c>
       <c r="I23">
-        <v>17.02376137356202</v>
+        <v>10.82275165634709</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>16.24551999702043</v>
+        <v>24.20981933520977</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.63553283386399</v>
+        <v>25.5238460064892</v>
       </c>
       <c r="C24">
-        <v>11.32674610647375</v>
+        <v>19.59617289801682</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>11.80007527805839</v>
+        <v>13.26299114575709</v>
       </c>
       <c r="F24">
-        <v>20.22900810905287</v>
+        <v>36.8512191057544</v>
       </c>
       <c r="G24">
-        <v>24.86529693576183</v>
+        <v>30.70059961177929</v>
       </c>
       <c r="H24">
-        <v>12.62032562443806</v>
+        <v>8.748348996385849</v>
       </c>
       <c r="I24">
-        <v>17.2253817125925</v>
+        <v>10.80688672305452</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1488,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>15.68540625172178</v>
+        <v>22.34276516088513</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.4833102169623</v>
+        <v>23.12644676243092</v>
       </c>
       <c r="C25">
-        <v>10.37947153275012</v>
+        <v>17.76199778411272</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>11.60565993429262</v>
+        <v>12.06487625784402</v>
       </c>
       <c r="F25">
-        <v>18.34778573295695</v>
+        <v>33.19272459126714</v>
       </c>
       <c r="G25">
-        <v>24.51396487365728</v>
+        <v>27.86832179360582</v>
       </c>
       <c r="H25">
-        <v>12.71432288758886</v>
+        <v>8.555348013835298</v>
       </c>
       <c r="I25">
-        <v>17.46919973658539</v>
+        <v>10.96537472149744</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>15.07054676107623</v>
+        <v>20.19773536755592</v>
       </c>
       <c r="N25">
         <v>0</v>
